--- a/Funções Básicas E Produtividade/7 - SE.xlsx
+++ b/Funções Básicas E Produtividade/7 - SE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Funções Básicas E Produtividade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D917FD-7484-4591-8A2E-3447635F1D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22D7D1C-3E36-4494-865F-37C49511333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{2A19D387-9B5F-4190-A372-9478C19875BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2A19D387-9B5F-4190-A372-9478C19875BC}"/>
   </bookViews>
   <sheets>
     <sheet name="SE (Introdução)" sheetId="2" r:id="rId1"/>
@@ -26,12 +26,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -181,9 +188,6 @@
   </si>
   <si>
     <t>Acertei todas</t>
-  </si>
-  <si>
-    <t>Aceitei todas</t>
   </si>
 </sst>
 </file>
@@ -475,31 +479,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF4472C4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -585,13 +564,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF4472C4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="medium">
           <color rgb="FF4472C4"/>
         </top>
@@ -599,6 +571,38 @@
           <color rgb="FF8EAADB"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF4472C4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF4472C4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3584,12 +3588,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46321F3A-0A7A-4FAC-A1C0-914A11480FB8}" name="Tabela1" displayName="Tabela1" ref="B7:D13" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46321F3A-0A7A-4FAC-A1C0-914A11480FB8}" name="Tabela1" displayName="Tabela1" ref="B7:D13" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="B7:D13" xr:uid="{46321F3A-0A7A-4FAC-A1C0-914A11480FB8}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3B7F43EE-BBB0-4B90-BFCA-A6C5AA3D2F58}" name="Operador" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B4039A4A-0153-44B1-B572-37BB279F5BC3}" name="Significado" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B8CEAF75-7117-42D1-B5F3-F9B9F831993C}" name="Exemplo" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3B7F43EE-BBB0-4B90-BFCA-A6C5AA3D2F58}" name="Operador" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B4039A4A-0153-44B1-B572-37BB279F5BC3}" name="Significado" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B8CEAF75-7117-42D1-B5F3-F9B9F831993C}" name="Exemplo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3892,10 +3896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52843839-DB5B-496A-B7CB-BCAC7E79DDFD}">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,7 +3913,7 @@
     <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>28</v>
       </c>
@@ -3917,7 +3921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="10">
         <v>30</v>
       </c>
@@ -3925,7 +3929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -3954,7 +3958,7 @@
         <v>Falso</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
@@ -3969,7 +3973,7 @@
         <v>Verdadeiro</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
@@ -3984,7 +3988,7 @@
         <v>Falso</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
@@ -3999,7 +4003,7 @@
         <v>Verdadeiro</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
@@ -4014,7 +4018,7 @@
         <v>Falso</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
@@ -4029,9 +4033,22 @@
         <v>Verdadeiro</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="F16" s="2">
+        <v>20</v>
+      </c>
+      <c r="H16" s="2">
+        <v>50</v>
+      </c>
+      <c r="J16" s="2">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f>IF(AND(F16&lt;=J16,J16&lt;=H16),"OK","Não")</f>
+        <v>OK</v>
       </c>
     </row>
   </sheetData>
@@ -4048,7 +4065,7 @@
   <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4113,7 +4130,7 @@
         <v>90</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f t="shared" ref="F4:F7" si="0">IF(E4&gt;=60,"Aprovado","Burro")</f>
+        <f t="shared" ref="F4:F6" si="0">IF(E4&gt;=60,"Aprovado","Burro")</f>
         <v>Aprovado</v>
       </c>
     </row>
@@ -4205,7 +4222,7 @@
     <row r="12" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4223,8 +4240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F6D5E5-5E3B-4704-AEAD-AA0AC8B0C3A3}">
   <dimension ref="B1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4327,7 +4344,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E6&gt;=60,"Aprovado",IF(E6&lt;40,"Burrão","Recuperação"))</f>
         <v>Recuperação</v>
       </c>
     </row>
